--- a/RestApi_Proj/src/test/resources/dataFile/TestData.xlsx
+++ b/RestApi_Proj/src/test/resources/dataFile/TestData.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5824DA46-48AD-4188-8875-2119E506E79A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A859A-FB0F-42F0-A253-28D5F3E85EAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10635" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Single trade testCase" sheetId="1" r:id="rId1"/>
+    <sheet name="trade testCase Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="91">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -428,12 +428,12 @@
     <t>OPTIONS_AMERICAN_SELL_PUT_validation</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
 "customer":"PLUTO1",
 "ccyPair":"EURUSD",
 "type":"VanillaOption",
 "style":"AMERICAN",
-"direction":"SELL",
+"direction":"BUY",
 "strategy":"CALL",
 "tradeDate":"2019-03-08",
 "exerciseStartDate":"2019-03-09",
@@ -449,7 +449,8 @@
 "premiumDate":"2019-03-08",
 "legalEntity":"CS Zurich",
 "trader":"Johann Baumfiddler"
-}</t>
+}
+ </t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -457,8 +458,8 @@
 "ccyPair":"EURUSD",
 "type":"VanillaOption",
 "style":"AMERICAN",
-"direction":"BUY",
-"strategy":"CALL",
+"direction":"SELL",
+"strategy":"PUT",
 "tradeDate":"2019-03-08",
 "exerciseStartDate":"2019-03-09",
 "amount1":1000000.00,
@@ -482,7 +483,7 @@
 "ccyPair":"EURUSD",
 "type":"VanillaOption",
 "style":"AMERICAN",
-"direction":"SELL",
+"direction":"BUY",
 "strategy":"PUT",
 "tradeDate":"2019-03-08",
 "exerciseStartDate":"2019-03-09",
@@ -500,67 +501,6 @@
 "trader":"Johann Baumfiddler"
 }
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"customer":"PLUTO1",
-"ccyPair":"EURUSD",
-"type":"VanillaOption",
-"style":"AMERICAN",
-"direction":"BUY",
-"strategy":"PUT",
-"tradeDate":"2019-03-08",
-"exerciseStartDate":"2019-03-09",
-"amount1":1000000.00,
-"amount2":1120000.00,
-"rate":1.12,
-"deliveryDate":"2019-03-12",
-"expiryDate":"2019-03-11",
-"payCcy":"USD",
-"premium":0.20,
-"premiumCcy":"USD",
-"premiumType":"%USD",
-"premiumDate":"2019-03-08",
-"legalEntity":"CS Zurich",
-"trader":"Johann Baumfiddler"
-}
- </t>
-  </si>
-  <si>
-    <t>{
-"customer":"PLUTO1",
-"ccyPair":"EURUSD",
-"type":"VanillaOption",
-"style":"AMERICAN",
-"direction":"BUY",
-"strategy":"PUT",
-"tradeDate":"2019-02-10",
-"amount1":1000000.00,
-"amount2":1120000.00,
-"rate":1.12,
-"deliveryDate":"2019-02-12",
-"expiryDate":"2019-03-10",
-"payCcy":"USD",
-"premium":0.20,
-"premiumCcy":"USD",
-"premiumType":"%USD",
-"premiumDate":"2019-03-08",
-"legalEntity":"CS Zurich",
-"trader":"Johann Baumfiddler"
-}</t>
-  </si>
-  <si>
-    <t>OPTIONS_AMERICAN_SELL_PUT_expiryDate_validation</t>
-  </si>
-  <si>
-    <t>{
-    "status": "ERROR",
-    "messages": [
-        "Expiry date 2019-03-10 has to be before delivery date 2019-02-12 ",
-        "Expiry date [2019-03-10] cannot fall on Saturday/Sunday",
-        "Premium date 2019-03-08 has to be before delivery date 2019-02-10 "
-    ]
-}</t>
   </si>
   <si>
     <t xml:space="preserve"> {
@@ -778,6 +718,251 @@
   </si>
   <si>
     <t>Batch trade validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"exerciseStartDate":"2017-08-18",
+"tradeDate":"2017-08-11",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2017-08-22",
+"expiryDate":"2017-08-21",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2017-08-12",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+} </t>
+  </si>
+  <si>
+    <t>{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"exerciseStartDate":"2017-08-10",
+"tradeDate":"2017-08-11",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2017-08-22",
+"expiryDate":"2017-08-21",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2017-08-12",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "ERROR",
+    "messages": [
+        "Exercise start date 2017-08-10 cannot be null and it has to be after trade date 2017-08-11 "
+    ]
+}</t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_exerciseStartDate_expiryDate_validation</t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_exerciseStartDate_tradeDate_validation</t>
+  </si>
+  <si>
+    <t>{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"exerciseStartDate":"2017-08-22",
+"tradeDate":"2017-08-11",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2017-08-22",
+"expiryDate":"2017-08-21",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2017-08-12",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "ERROR",
+    "messages": [
+        "Exercise start date 2017-08-22 cannot be null and it has to be after expiry date 2017-08-21 "
+    ]
+}</t>
+  </si>
+  <si>
+    <t>Negative_OPTIONS_AMERICAN_SELL_PUT_without_exerciseStartDate_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"tradeDate":"2017-08-11",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2017-08-22",
+"expiryDate":"2017-08-21",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2017-08-12",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+} </t>
+  </si>
+  <si>
+    <t>{
+    "status": "ERROR",
+    "messages": "Invalid legal Entity [CS UK].Valid Legal entity is : [CS Zurich]"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "status": "SUCCESS",
+    "messages": null
+}
+</t>
+  </si>
+  <si>
+    <t>{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"tradeDate":"2019-02-06",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2019-02-10",
+"expiryDate":"2019-02-08",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2019-02-08",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"tradeDate":"2019-02-06",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2019-02-10",
+"expiryDate":"2019-02-12",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2019-02-08",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+} </t>
+  </si>
+  <si>
+    <t>{
+    "status": "ERROR",
+    "messages": [
+        "Expiry date 2019-02-12 has to be before delivery date 2019-02-10 "
+    ]
+}</t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_expiryDate_before_deliveryDate_validation</t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_expiryDate_after_deliveryDate_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"tradeDate":"2019-02-06",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2019-02-10",
+"expiryDate":"2019-02-08",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2019-02-12",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+} </t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_premiumDate_after_deliveryDate_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"customer":"PLUTO1",
+"ccyPair":"EURUSD",
+"type":"VanillaOption",
+"style":"AMERICAN",
+"direction":"BUY",
+"strategy":"CALL",
+"tradeDate":"2019-02-06",
+"amount1":1000000.00,
+"amount2":1120000.00,
+"rate":1.12,
+"deliveryDate":"2019-02-12",
+"expiryDate":"2019-02-08",
+"payCcy":"USD",
+"premium":0.20,
+"premiumCcy":"USD",
+"premiumType":"%USD",
+"premiumDate":"2019-02-08",
+"legalEntity":"CS Zurich",
+"trader":"Johann Baumfiddler"
+} </t>
+  </si>
+  <si>
+    <t>OPTIONS_AMERICAN_SELL_PUT_premiumDate_before_deliveryDate_validation</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="120" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1444,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1282,7 +1467,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1305,7 +1490,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1328,7 +1513,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -1351,7 +1536,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1374,7 +1559,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -1397,7 +1582,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
@@ -1415,12 +1600,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>29</v>
@@ -1443,7 +1628,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>31</v>
@@ -1466,7 +1651,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>34</v>
@@ -1489,7 +1674,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>35</v>
@@ -1512,7 +1697,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>36</v>
@@ -1535,7 +1720,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>37</v>
@@ -1558,7 +1743,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -1581,7 +1766,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
@@ -1602,9 +1787,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>43</v>
@@ -1625,9 +1810,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
@@ -1648,9 +1833,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>49</v>
@@ -1665,15 +1850,15 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>50</v>
@@ -1688,15 +1873,15 @@
         <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
@@ -1711,15 +1896,15 @@
         <v>6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
@@ -1734,125 +1919,262 @@
         <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="7" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1875,13 +2197,19 @@
     <hyperlink ref="C17" r:id="rId16" xr:uid="{A7A3A106-F0F8-47B8-B899-F2F02C331AFC}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{81252C22-F223-4A86-A7D8-18C7EF42FC42}"/>
     <hyperlink ref="C19:C22" r:id="rId18" display="http://localhost:12345/validate" xr:uid="{59C2F50A-5E28-41A4-A67C-35CD451CDD71}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{09242069-FAC5-40B5-AD90-0B20DD009B36}"/>
-    <hyperlink ref="C24" r:id="rId20" xr:uid="{952C4135-07A7-4CF2-9190-24DB296EB3BF}"/>
-    <hyperlink ref="C25" r:id="rId21" xr:uid="{F5D57B94-3F13-41D7-9CD5-A2AC1FECA9EE}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{F87D9CBA-A717-4E73-B0E2-A0F86E275271}"/>
-    <hyperlink ref="C27" r:id="rId23" xr:uid="{D5DD0C97-2251-4000-95B4-2E0E010248C4}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{952C4135-07A7-4CF2-9190-24DB296EB3BF}"/>
+    <hyperlink ref="C31" r:id="rId20" xr:uid="{F5D57B94-3F13-41D7-9CD5-A2AC1FECA9EE}"/>
+    <hyperlink ref="C32" r:id="rId21" xr:uid="{F87D9CBA-A717-4E73-B0E2-A0F86E275271}"/>
+    <hyperlink ref="C33" r:id="rId22" xr:uid="{D5DD0C97-2251-4000-95B4-2E0E010248C4}"/>
+    <hyperlink ref="C23" r:id="rId23" xr:uid="{CA3C105E-258D-46C1-BEC1-D48D6AFD54F9}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{AD78E6DF-628D-42D5-9464-6B95533566DE}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{009779C9-E8DA-432E-8841-BBFA6BE58672}"/>
+    <hyperlink ref="C24" r:id="rId26" xr:uid="{9B8EEFFF-D2E6-4CD1-A7FE-31245D0BC83D}"/>
+    <hyperlink ref="C26" r:id="rId27" xr:uid="{ECADF004-A7FC-4C22-A722-14BB295B1767}"/>
+    <hyperlink ref="C25" r:id="rId28" xr:uid="{081C46CF-B1A3-4E8B-937D-2522B79783D6}"/>
+    <hyperlink ref="C27" r:id="rId29" xr:uid="{F0BABD14-3898-40D0-BAE1-EEE65D048ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>